--- a/Datos/DEPOSITADA_EN.xlsx
+++ b/Datos/DEPOSITADA_EN.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DAE678F-5FED-46AA-AEE1-FCF0546931D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{E09112EA-A069-40F9-8E2D-BCB479D73386}"/>
+    <workbookView xWindow="28680" yWindow="2592" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>SALDO</t>
   </si>
@@ -53,18 +52,12 @@
   </si>
   <si>
     <t>ES32 5829 354  1000</t>
-  </si>
-  <si>
-    <t>ES32 6784 345 0000</t>
-  </si>
-  <si>
-    <t>ES32 893 455 2333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,20 +402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC4AFA5-76CA-4677-9007-E0C59F9A2C06}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2345</v>
       </c>
@@ -441,10 +434,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3554</v>
       </c>
@@ -452,40 +445,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2356</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4435</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3242</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/DEPOSITADA_EN.xlsx
+++ b/Datos/DEPOSITADA_EN.xlsx
@@ -51,7 +51,7 @@
     <t>ES32 1226 347 77987</t>
   </si>
   <si>
-    <t>ES32 5829 354  1000</t>
+    <t>ES32 5829 354 1000</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2345</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -450,5 +450,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>